--- a/src/main/resources/static/template/gfArea.xlsx
+++ b/src/main/resources/static/template/gfArea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>所属专题</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>权利要求（翻译）</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>各分系统</t>
+  </si>
+  <si>
+    <t>ABCD1233</t>
+  </si>
+  <si>
+    <t>A61D25/14</t>
+  </si>
+  <si>
+    <t>A61D25/14;A61D61/02;A61D13/02;A61D61/06;A61D53/02</t>
+  </si>
+  <si>
+    <t>A012</t>
   </si>
 </sst>
 </file>
@@ -113,12 +131,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,20 +152,66 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -155,34 +219,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,7 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,85 +251,48 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -294,7 +305,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,150 +461,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,13 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,6 +520,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -526,6 +546,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -535,11 +564,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,39 +594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,6 +608,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,150 +637,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,140 +1128,191 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="6" max="6" width="11.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="11" max="11" width="10.4545454545455" customWidth="1"/>
-    <col min="12" max="12" width="11.0909090909091" customWidth="1"/>
-    <col min="14" max="14" width="11.0909090909091" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" ht="42" spans="1:30">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="7:7">
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="7:7">
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="7:7">
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="7:7">
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="7:8">
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="7:7">
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="7:7">
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="7:7">
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="7:7">
-      <c r="G10" s="2"/>
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1">
+        <v>123</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3">
+        <v>42862</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3">
+        <v>42862</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="1">
+        <v>12</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
